--- a/medicine/Pharmacie/Chlorphéniramine/Chlorphéniramine.xlsx
+++ b/medicine/Pharmacie/Chlorphéniramine/Chlorphéniramine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorph%C3%A9niramine</t>
+          <t>Chlorphéniramine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chlorphénamine ou chlorphéniramine est un composé chimique de la classe des pyridines, qui a des propriétés médicales anticholinergiques, sédatives, antitussives et antihistaminiques.
 C'est surtout comme antihistaminique que la chlorphénamine est utilisée. Elle se prescrit pour atténuer les symptômes associés aux allergies telles que le rhume des foins ou l'urticaire.
 C'est un antihistaminique de première génération et, à ce titre, elle a un effet de sédation important.
-Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
+Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
